--- a/src/test/resources/visitExcelTwoPersonTest.xlsx
+++ b/src/test/resources/visitExcelTwoPersonTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03429CDC-64A5-437E-B72D-C7B03522B099}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5BDE3-C76E-4109-B64C-AB8EAEB4383A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>ende</t>
+  </si>
+  <si>
+    <t>BezTest2</t>
   </si>
 </sst>
 </file>
@@ -2675,10 +2678,10 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,7 +2882,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="125" customFormat="1" x14ac:dyDescent="0.3">

--- a/src/test/resources/visitExcelTwoPersonTest.xlsx
+++ b/src/test/resources/visitExcelTwoPersonTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5BDE3-C76E-4109-B64C-AB8EAEB4383A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF61F-5C55-4B50-8998-CE85F2621AFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2681,7 +2681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/visitExcelTwoPersonTest.xlsx
+++ b/src/test/resources/visitExcelTwoPersonTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AF61F-5C55-4B50-8998-CE85F2621AFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D06A789-582F-4DF9-9D25-B604B344C51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>id2</t>
-  </si>
-  <si>
-    <t>id1</t>
   </si>
   <si>
     <t>Vorname2</t>
@@ -624,18 +621,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -927,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1034,9 +1026,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1044,30 +1035,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1426,27 +1417,27 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="139"/>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="139"/>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1487,13 +1478,13 @@
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="139"/>
     </row>
     <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="141"/>
+      <c r="C17" s="140"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1511,29 +1502,29 @@
           </x14:formula1>
           <xm:sqref>B9:SG9</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:SG11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12:SG12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:SG16</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
+            <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B10:SG10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1979,35 +1970,35 @@
           </x14:formula1>
           <xm:sqref>B13:SG13</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B47:SG47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B45:SG45 B36:SG38 B21:SG23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B47:SG47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B45:SG45 B21:SG23 B36:SG38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2171,47 +2162,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13:SG14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20:SG20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:SG21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22:SG22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24:SG24</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
+            <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B7:SG7 B23:SG23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:SG14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B20:SG20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2540,47 +2531,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:SG15 B47:SG47 B45:SG45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:SG21 B52:SG52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+          <x14:formula1>
+            <xm:f>Institution!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57:SG57</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:SG14 B50:SG50 B46:SG46 B44:SG44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:SG15 B47:SG47 B45:SG45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21 B52:SG52</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B57:SG57</xm:sqref>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:SG14 B44:SG44 B46:SG46 B50:SG50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2675,13 +2666,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,79 +2681,76 @@
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>166</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="s">
-        <v>171</v>
+    </row>
+    <row r="6" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="106" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="s">
-        <v>144</v>
+        <v>176</v>
+      </c>
+      <c r="B8" s="143">
+        <v>27171</v>
+      </c>
+      <c r="C8" s="143">
+        <v>28572</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="109" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="144">
-        <v>27171</v>
-      </c>
-      <c r="C9" s="144">
-        <v>28572</v>
+      <c r="B9" s="109" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.3">
@@ -2783,50 +2771,47 @@
     </row>
     <row r="12" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="112" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="116" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="117" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117" t="s">
-        <v>149</v>
+        <v>180</v>
+      </c>
+      <c r="B17" s="143">
+        <v>35939</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="118" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="144">
-        <v>35939</v>
-      </c>
     </row>
     <row r="19" spans="1:3" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
@@ -2840,74 +2825,74 @@
     </row>
     <row r="21" spans="1:3" s="121" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="121" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="122" t="s">
-        <v>172</v>
+      <c r="B21" s="121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="122" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="123" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B26" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="123" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="125" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="B28" s="143">
+        <v>34091</v>
+      </c>
+      <c r="C28" s="143">
+        <v>34091</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="144">
-        <v>34091</v>
-      </c>
-      <c r="C29" s="144">
-        <v>34091</v>
+      <c r="C29" s="143" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="127" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="144" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="31" spans="1:3" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="128" t="s">
@@ -2915,13 +2900,13 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="144" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="130" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="131" customFormat="1" x14ac:dyDescent="0.3">
@@ -2939,123 +2924,118 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
-        <v>192</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>176</v>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="134" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="136" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="137">
+      <c r="B52" s="136">
         <v>2</v>
       </c>
-      <c r="C53" s="137">
+      <c r="C52" s="136">
         <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B38:SG38 B27:SG27 B14:SG15" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B37:SG37 B13:SG14 B26:SG26" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3066,31 +3046,31 @@
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:SG13 B22:SG22</xm:sqref>
+          <xm:sqref>B12:SG12 B21:SG21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B39:SG39 B41:SG43</xm:sqref>
+          <xm:sqref>B38:SG38 B40:SG42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B40:SG40</xm:sqref>
+          <xm:sqref>B39:SG39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
           <x14:formula1>
             <xm:f>Object!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
+          <xm:sqref>B54:SG54 B46:SG47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
+          <xm:sqref>B51:SG51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3102,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3114,8 +3094,8 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3159,18 +3139,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3201,23 +3181,23 @@
           </x14:formula1>
           <xm:sqref>B5:SG5</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:SG11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:SG14</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
           <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
+            <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B6:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:SG14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/visitExcelTwoPersonTest.xlsx
+++ b/src/test/resources/visitExcelTwoPersonTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D06A789-582F-4DF9-9D25-B604B344C51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3153728-F20A-4B86-A652-BDD240BAF3D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -615,6 +615,72 @@
   </si>
   <si>
     <t>BezTest2</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>freie</t>
+  </si>
+  <si>
+    <t>Beginn</t>
+  </si>
+  <si>
+    <t>TitelPerson</t>
+  </si>
+  <si>
+    <t>Beschre</t>
+  </si>
+  <si>
+    <t>beginn</t>
+  </si>
+  <si>
+    <t>taggenau</t>
+  </si>
+  <si>
+    <t>freie da</t>
+  </si>
+  <si>
+    <t>beginn d</t>
+  </si>
+  <si>
+    <t>ende des</t>
+  </si>
+  <si>
+    <t>Bauwerke</t>
+  </si>
+  <si>
+    <t>Ausgeführt</t>
+  </si>
+  <si>
+    <t>Beteiligt</t>
+  </si>
+  <si>
+    <t>inAuftrag</t>
+  </si>
+  <si>
+    <t>ausgeführt</t>
+  </si>
+  <si>
+    <t>beteiligt</t>
+  </si>
+  <si>
+    <t>imBesitz</t>
+  </si>
+  <si>
+    <t>ehemals</t>
+  </si>
+  <si>
+    <t>schlagwort</t>
+  </si>
+  <si>
+    <t>Gestern</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -838,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -915,11 +981,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1065,6 +1142,8 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2668,11 +2747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,6 +2775,9 @@
       <c r="A2" t="s">
         <v>139</v>
       </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2712,6 +2794,9 @@
       <c r="A4" t="s">
         <v>141</v>
       </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2784,11 +2869,17 @@
       <c r="A13" s="113" t="s">
         <v>146</v>
       </c>
+      <c r="B13" s="113" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="114" t="s">
         <v>147</v>
       </c>
+      <c r="B14" s="114" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
@@ -2812,16 +2903,25 @@
       <c r="A18" s="118" t="s">
         <v>181</v>
       </c>
+      <c r="B18" s="118" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="19" spans="1:3" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
         <v>182</v>
       </c>
+      <c r="B19" s="119" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20" spans="1:3" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120" t="s">
         <v>183</v>
       </c>
+      <c r="B20" s="120" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="21" spans="1:3" s="121" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="121" t="s">
@@ -2843,11 +2943,17 @@
       <c r="A23" t="s">
         <v>1</v>
       </c>
+      <c r="B23" s="145" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
+      <c r="B24" s="145" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="25" spans="1:3" s="122" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="122" t="s">
@@ -2885,6 +2991,9 @@
       <c r="A29" s="126" t="s">
         <v>185</v>
       </c>
+      <c r="B29" s="126" t="s">
+        <v>192</v>
+      </c>
       <c r="C29" s="143" t="s">
         <v>192</v>
       </c>
@@ -2893,11 +3002,17 @@
       <c r="A30" s="127" t="s">
         <v>186</v>
       </c>
+      <c r="B30" s="127" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="31" spans="1:3" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="128" t="s">
         <v>187</v>
       </c>
+      <c r="B31" s="128" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="32" spans="1:3" s="129" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="144" t="s">
@@ -2908,26 +3023,41 @@
       <c r="A33" s="130" t="s">
         <v>188</v>
       </c>
+      <c r="B33" s="130" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="34" spans="1:3" s="131" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="131" t="s">
         <v>189</v>
       </c>
+      <c r="B34" s="132" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="35" spans="1:3" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="132" t="s">
         <v>190</v>
       </c>
+      <c r="B35" s="132" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:3" s="133" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="133" t="s">
         <v>191</v>
       </c>
+      <c r="B36" s="133" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>156</v>
       </c>
+      <c r="B37" s="146" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2944,51 +3074,81 @@
       <c r="A39" t="s">
         <v>158</v>
       </c>
+      <c r="B39" s="145" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
+      <c r="B40" s="145" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
+      <c r="B41" s="145" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>159</v>
       </c>
+      <c r="B42" s="145" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
+      <c r="B43" s="145" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
+      <c r="B44" s="145" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>160</v>
       </c>
+      <c r="B45" s="145" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
+      <c r="B46" s="145" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
+      <c r="B47" s="145" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
+      <c r="B48" s="145" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -3010,6 +3170,9 @@
       <c r="A51" s="135" t="s">
         <v>15</v>
       </c>
+      <c r="B51" s="135" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="52" spans="1:3" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="136" t="s">
@@ -3026,9 +3189,15 @@
       <c r="A53" t="s">
         <v>17</v>
       </c>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3082,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
